--- a/replication/temp/figureA4_police_report_primary.xlsx
+++ b/replication/temp/figureA4_police_report_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>hour</t>
   </si>
@@ -34,7 +34,58 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>(0.57)</t>
+  </si>
+  <si>
+    <t>(1.22)</t>
+  </si>
+  <si>
+    <t>(0.75)</t>
+  </si>
+  <si>
+    <t>(0.4)</t>
+  </si>
+  <si>
+    <t>(1.02)</t>
+  </si>
+  <si>
+    <t>(0.39)</t>
+  </si>
+  <si>
+    <t>(0.07)</t>
+  </si>
+  <si>
+    <t>(1.13)</t>
+  </si>
+  <si>
+    <t>(1.53)</t>
+  </si>
+  <si>
+    <t>(2.12)</t>
+  </si>
+  <si>
+    <t>(1.74)</t>
+  </si>
+  <si>
+    <t>(2.34)</t>
+  </si>
+  <si>
+    <t>(1.09)</t>
+  </si>
+  <si>
+    <t>(1.88)</t>
+  </si>
+  <si>
+    <t>(2.4)</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
   </si>
 </sst>
 </file>
@@ -499,28 +550,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -560,31 +611,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/replication/temp/figureA4_police_report_primary.xlsx
+++ b/replication/temp/figureA4_police_report_primary.xlsx
@@ -34,58 +34,58 @@
     <t>total_dof</t>
   </si>
   <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
     <t>(0.33)</t>
   </si>
   <si>
+    <t>(0.67)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
+  </si>
+  <si>
+    <t>(1.24)</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(0.93)</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>(0.96)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
     <t>(0.57)</t>
   </si>
   <si>
-    <t>(1.22)</t>
-  </si>
-  <si>
-    <t>(0.75)</t>
-  </si>
-  <si>
-    <t>(0.4)</t>
-  </si>
-  <si>
-    <t>(1.02)</t>
-  </si>
-  <si>
-    <t>(0.39)</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
-  </si>
-  <si>
-    <t>(1.13)</t>
-  </si>
-  <si>
-    <t>(1.53)</t>
-  </si>
-  <si>
-    <t>(2.12)</t>
-  </si>
-  <si>
-    <t>(1.74)</t>
-  </si>
-  <si>
-    <t>(2.34)</t>
-  </si>
-  <si>
-    <t>(1.09)</t>
-  </si>
-  <si>
-    <t>(1.88)</t>
-  </si>
-  <si>
-    <t>(2.4)</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
+    <t>(1.27)</t>
   </si>
 </sst>
 </file>
